--- a/QuyTac/KeHoachHoanThanhDuAn.xlsx
+++ b/QuyTac/KeHoachHoanThanhDuAn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Bảng quản lý công việc dự án phần mềm</t>
+  </si>
+  <si>
+    <t>1 Ngày</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
         <v>44276</v>
       </c>
       <c r="D6" s="2">
-        <v>44297</v>
+        <v>44290</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>12</v>
@@ -505,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>44298</v>
+        <v>44291</v>
       </c>
       <c r="D7" s="2">
         <v>44304</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -542,7 +545,7 @@
         <v>44312</v>
       </c>
       <c r="D9" s="2">
-        <v>44327</v>
+        <v>44325</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -556,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
+        <v>44325</v>
+      </c>
+      <c r="D10" s="2">
         <v>44328</v>
       </c>
-      <c r="D10" s="2">
-        <v>44334</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,13 +576,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
+        <v>44325</v>
+      </c>
+      <c r="D11" s="2">
         <v>44328</v>
       </c>
-      <c r="D11" s="2">
-        <v>44334</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -590,13 +593,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>44335</v>
+        <v>44328</v>
       </c>
       <c r="D12" s="2">
-        <v>44338</v>
+        <v>44329</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
